--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1089,7 +1089,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
-      <c r="I8" s="15" t="n"/>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
@@ -1135,7 +1139,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
-      <c r="I9" s="15" t="n"/>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
@@ -1231,7 +1239,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I11" s="15" t="n"/>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
@@ -1323,7 +1335,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I13" s="15" t="n"/>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
@@ -1415,7 +1431,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
-      <c r="I15" s="15" t="n"/>
+      <c r="I15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-ea-roles</t>
+        </is>
+      </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
@@ -1511,7 +1531,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
-      <c r="I17" s="15" t="n"/>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/devtest/offer/how-to-manage-monitor-devtest</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
@@ -1557,7 +1581,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I18" s="15" t="n"/>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-setup-account</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
@@ -1603,7 +1631,11 @@
           <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
-      <c r="I19" s="15" t="n"/>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/understand/mca-overview#billing-profiles</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
@@ -1649,7 +1681,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I20" s="15" t="n"/>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/devtest/offer/overview-what-is-devtest-offer-visual-studio</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
@@ -1695,7 +1731,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I21" s="15" t="n"/>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-mca-roles</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -2238,7 +2278,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/entra/identity/domain-services/overview</t>
+          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
@@ -2291,7 +2331,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
-      <c r="I33" s="15" t="n"/>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2387,7 +2431,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
@@ -2633,7 +2681,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
         </is>
       </c>
-      <c r="I40" s="15" t="n"/>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -3204,12 +3256,12 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
+          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/training/modules/visualize-data-workbooks/</t>
+          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
@@ -3697,6 +3749,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
@@ -3838,7 +3895,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
-      <c r="I65" s="15" t="n"/>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
@@ -3884,6 +3945,11 @@
           <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
@@ -4029,7 +4095,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
-      <c r="I69" s="15" t="n"/>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
@@ -4075,7 +4145,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
-      <c r="I70" s="15" t="n"/>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
@@ -4121,7 +4195,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
-      <c r="I71" s="15" t="n"/>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
@@ -4167,7 +4245,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
-      <c r="I72" s="15" t="n"/>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
@@ -4563,7 +4645,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I80" s="15" t="n"/>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
@@ -4659,7 +4745,11 @@
           <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
-      <c r="I82" s="15" t="n"/>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
@@ -4705,7 +4795,11 @@
           <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
-      <c r="I83" s="15" t="n"/>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
@@ -4951,7 +5045,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
-      <c r="I88" s="15" t="n"/>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
@@ -5047,7 +5145,11 @@
           <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
         </is>
       </c>
-      <c r="I90" s="15" t="n"/>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
@@ -5247,7 +5349,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
-      <c r="I94" s="15" t="n"/>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
@@ -5293,7 +5399,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
-      <c r="I95" s="15" t="n"/>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
@@ -5839,7 +5949,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
-      <c r="I106" s="15" t="n"/>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
@@ -5931,7 +6045,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
-      <c r="I108" s="15" t="n"/>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
@@ -6423,7 +6541,11 @@
           <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
-      <c r="I118" s="15" t="n"/>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
@@ -6469,6 +6591,11 @@
           <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
@@ -6560,7 +6687,11 @@
           <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
-      <c r="I121" s="15" t="n"/>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
@@ -6752,7 +6883,11 @@
           <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
-      <c r="I125" s="15" t="n"/>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
@@ -6798,6 +6933,11 @@
           <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
@@ -6888,6 +7028,11 @@
           <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
@@ -6933,6 +7078,11 @@
           <t>https://learn.microsoft.com/azure/firewall/integrate-with-nat-gateway</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
@@ -7068,6 +7218,11 @@
           <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
@@ -7113,6 +7268,11 @@
           <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
@@ -7158,6 +7318,11 @@
           <t>https://learn.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
@@ -7203,6 +7368,11 @@
           <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
@@ -7888,6 +8058,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/virtual-wan-network-topology#virtual-wan-network-design-recommendationst</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
@@ -7983,6 +8158,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/migrate-from-hub-spoke-topology</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
@@ -8028,6 +8208,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
@@ -8073,6 +8258,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
@@ -8118,6 +8308,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
@@ -8163,6 +8358,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
@@ -8208,6 +8408,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
@@ -9194,7 +9399,12 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/effect-deny</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/deny-assignments?tabs=azure-portal</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
@@ -9242,6 +9452,11 @@
           <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-service-health/</t>
+        </is>
+      </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
@@ -9287,6 +9502,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-gb/training/modules/incident-response-with-alerting-on-azure/7-actions-and-alert-processing-rules</t>
+        </is>
+      </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
@@ -9332,6 +9552,11 @@
           <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/logging-and-reporting/</t>
+        </is>
+      </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
@@ -9377,6 +9602,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
@@ -9422,6 +9652,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-extensions/</t>
+        </is>
+      </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
@@ -9467,6 +9702,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
@@ -9512,6 +9752,11 @@
           <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-104-monitor-backup-resources/</t>
+        </is>
+      </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
@@ -9557,6 +9802,11 @@
           <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
@@ -9652,6 +9902,11 @@
           <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
+        </is>
+      </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
@@ -9697,6 +9952,11 @@
           <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
@@ -9791,6 +10051,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
@@ -9836,6 +10101,11 @@
           <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
@@ -9881,6 +10151,11 @@
           <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
@@ -9926,6 +10201,11 @@
           <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
@@ -9971,6 +10251,11 @@
           <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
@@ -10016,6 +10301,11 @@
           <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
@@ -11456,6 +11746,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
@@ -11501,6 +11796,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
@@ -11546,6 +11846,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
@@ -11591,6 +11896,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
+        </is>
+      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
@@ -11636,6 +11946,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
+        </is>
+      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
@@ -11681,6 +11996,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
@@ -11771,6 +12091,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
+        </is>
+      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
@@ -11816,6 +12141,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
+        </is>
+      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
@@ -11861,6 +12191,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
+        </is>
+      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
@@ -11906,6 +12241,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
+        </is>
+      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
@@ -11951,6 +12291,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
+        </is>
+      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
@@ -11994,6 +12339,11 @@
       <c r="H239" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
